--- a/acpython/検討資料.xlsx
+++ b/acpython/検討資料.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\PythonLibrary\acpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A3913B-ED7C-499D-802B-23C0A182553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0C208-44D5-4E51-9D8B-10815EFA6C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4F5F74F-CE3A-4B04-BDB8-F19696AB784F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4F5F74F-CE3A-4B04-BDB8-F19696AB784F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="セグ木" sheetId="1" r:id="rId1"/>
+    <sheet name="木構造" sheetId="2" r:id="rId2"/>
+    <sheet name="たたみ込み" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>Point</t>
     <phoneticPr fontId="1"/>
@@ -514,13 +516,576 @@
   <si>
     <t>遅延セグ木</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tree Diameter</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor</t>
+  </si>
+  <si>
+    <t>Jump on Tree</t>
+  </si>
+  <si>
+    <t>Frequency Table of Tree Distance</t>
+  </si>
+  <si>
+    <t>Rooted Tree Isomorphism Classification</t>
+  </si>
+  <si>
+    <t>Tree Path Composite Sum</t>
+  </si>
+  <si>
+    <t>Vertex Add Path Sum</t>
+  </si>
+  <si>
+    <t>Vertex Set Path Composite</t>
+  </si>
+  <si>
+    <t>Vertex Add Subtree Sum</t>
+  </si>
+  <si>
+    <t>Vertex Add Range Contour Sum on Tree</t>
+  </si>
+  <si>
+    <t>Vertex Get Range Contour Add on Tree</t>
+  </si>
+  <si>
+    <t>Point Set Tree Path Composite Sum (Fixed Root)</t>
+  </si>
+  <si>
+    <t>Point Set Tree Path Composite Sum</t>
+  </si>
+  <si>
+    <t>Dynamic Tree Vertex Add Path Sum</t>
+  </si>
+  <si>
+    <t>Dynamic Tree Vertex Set Path Composite</t>
+  </si>
+  <si>
+    <t>Dynamic Tree Vertex Add Subtree Sum</t>
+  </si>
+  <si>
+    <t>Dynamic Tree Subtree Add Subtree Sum</t>
+  </si>
+  <si>
+    <t>Common Interval Decomposition Tree</t>
+  </si>
+  <si>
+    <t>無向木</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重み</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>求めるもの</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径のパス</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の種類</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根付き木</t>
+    <rPh sb="0" eb="2">
+      <t>ネヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離xの頂点対の個数</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分木の同型判定</t>
+    <rPh sb="0" eb="3">
+      <t>ブブンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無向木</t>
+    <rPh sb="0" eb="3">
+      <t>ムコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス上の関数合成</t>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カンスウゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス上の総和</t>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重みの更新</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間更新</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一点更新</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>テンコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一点取得</t>
+    <rPh sb="0" eb="2">
+      <t>イッテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分木の総和</t>
+    <rPh sb="0" eb="3">
+      <t>ブブンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根付き木</t>
+    <rPh sb="0" eb="1">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一点更新</t>
+    <rPh sb="0" eb="4">
+      <t>イッテンコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定距離の総和</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点からの関数合成の和</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全頂点対の関数合成の和</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的木</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分木の総和(親を指定)</t>
+    <rPh sb="0" eb="3">
+      <t>ブブンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分木更新</t>
+    <rPh sb="0" eb="2">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cartesian Tree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cartesian Treeを出力</t>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順列木</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順列木を出力</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定解</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dfs二回</t>
+    <rPh sb="3" eb="5">
+      <t>ニカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Convolution</t>
+  </si>
+  <si>
+    <t>Convolution (Mod 1,000,000,007)</t>
+  </si>
+  <si>
+    <t>Convolution (Mod 2^64)</t>
+  </si>
+  <si>
+    <t>Convolution (Large)</t>
+  </si>
+  <si>
+    <t>Bitwise And Convolution</t>
+  </si>
+  <si>
+    <t>Bitwise Xor Convolution</t>
+  </si>
+  <si>
+    <t>Gcd Convolution</t>
+  </si>
+  <si>
+    <t>Lcm Convolution</t>
+  </si>
+  <si>
+    <t>Multidimensional Convolution (Truncated)</t>
+  </si>
+  <si>
+    <t>Multidimensional Convolution (Circular)</t>
+  </si>
+  <si>
+    <t>Convolution on the Multiplicative Monoid of Z/PZZ/PZ</t>
+  </si>
+  <si>
+    <t>Convolution on the Multiplicative Monoid of Z/2NZZ/2NZ</t>
+  </si>
+  <si>
+    <t>Min Plus Convolution (Convex and Arbitrary)</t>
+  </si>
+  <si>
+    <t>Min Plus Convolution (Convex and Convex)</t>
+  </si>
+  <si>
+    <t>MOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素数</t>
+    <rPh sb="0" eb="2">
+      <t>ソスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2^64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度検証用</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解法</t>
+    <rPh sb="0" eb="2">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速ゼータ変換(FZT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位集合</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウイシュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下位集合</t>
+    <rPh sb="0" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速メビウス変換(FMT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位集合/逆変換</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウイシュウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ギャクヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下位集合/逆変換</t>
+    <rPh sb="0" eb="4">
+      <t>カイシュウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ギャクヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速アダマール変換(FWT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kazuma8128.hatenablog.com/entry/2018/05/31/144519</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MONGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私用メモ: 畳み込めるものまとめ - noshi91のメモ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +1096,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -554,17 +1128,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,6 +1159,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566786</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657A524E-8132-7A3E-8C41-577481C3A7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="3200400"/>
+          <a:ext cx="5348336" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B63F448-CA9B-40D1-94E2-D28057E2716A}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1140,4 +1770,592 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F210C2-9F31-44C3-BB34-9A290C5BBF43}">
+  <dimension ref="B1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172401D-804C-4155-B9E2-5F277FB74131}">
+  <dimension ref="B1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="52.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{0D9DAEA4-9CE7-482A-9D02-5E9CE4CAF296}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://noshi91.hatenablog.com/entry/2020/10/27/175112" xr:uid="{91754EFA-D470-46E1-A7B9-70DF5D24158C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/acpython/検討資料.xlsx
+++ b/acpython/検討資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\PythonLibrary\acpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0C208-44D5-4E51-9D8B-10815EFA6C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6ECCE-A712-485F-941F-D390B64F2330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4F5F74F-CE3A-4B04-BDB8-F19696AB784F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E4F5F74F-CE3A-4B04-BDB8-F19696AB784F}"/>
   </bookViews>
   <sheets>
     <sheet name="セグ木" sheetId="1" r:id="rId1"/>
@@ -2142,7 +2142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172401D-804C-4155-B9E2-5F277FB74131}">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
